--- a/Bases_de_Dados_(2006-2021)/China Chinese Super League_2010.xlsx
+++ b/Bases_de_Dados_(2006-2021)/China Chinese Super League_2010.xlsx
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -26964,7 +26964,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -29367,7 +29367,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -30888,7 +30888,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -32850,7 +32850,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -34163,7 +34163,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -36338,7 +36338,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -38959,7 +38959,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -40698,7 +40698,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -40921,7 +40921,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -45281,7 +45281,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -47456,7 +47456,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -48551,7 +48551,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -50508,7 +50508,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I241" t="n">
